--- a/CellLineClients.xlsx
+++ b/CellLineClients.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo_m\Documents\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo_m\Documents\GitHub\CellLineIDAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B2C62C-BA01-406F-88E9-27AF98992C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED3C6C8-E66A-4EF1-8002-92204BCF26D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19230" yWindow="4700" windowWidth="12550" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14150" yWindow="1680" windowWidth="20450" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Institution</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Kenny Ma2</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -380,76 +389,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>6262462233</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>6262462233</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FA464CA5-668F-4B6C-8C8D-8047E2201EB2}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{937FCD52-1986-4077-A5AC-DE62A8C7D48B}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{FA464CA5-668F-4B6C-8C8D-8047E2201EB2}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{937FCD52-1986-4077-A5AC-DE62A8C7D48B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/CellLineClients.xlsx
+++ b/CellLineClients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo_m\Documents\GitHub\CellLineIDAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Main\Desktop\CELL LINE ID AUTOMATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED3C6C8-E66A-4EF1-8002-92204BCF26D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2680D434-B57E-441B-AAF4-B9035A921DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14150" yWindow="1680" windowWidth="20450" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15015" yWindow="1290" windowWidth="16215" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="213">
   <si>
     <t>Institution</t>
   </si>
@@ -51,26 +51,756 @@
     <t>PIName</t>
   </si>
   <si>
-    <t>Kenny Ma2</t>
+    <t>Supreet Agarwal</t>
+  </si>
+  <si>
+    <t>NIH</t>
+  </si>
+  <si>
+    <t>Elie Besserer-Offroy</t>
+  </si>
+  <si>
+    <t>Pauline Jeanjean</t>
+  </si>
+  <si>
+    <t>310-206-5675</t>
+  </si>
+  <si>
+    <t>UCLA Pharmacology</t>
+  </si>
+  <si>
+    <t>Andrea Bild</t>
+  </si>
+  <si>
+    <t>Patrick Cosgrove</t>
+  </si>
+  <si>
+    <t>661 547 0555</t>
+  </si>
+  <si>
+    <t>City of Hope</t>
+  </si>
+  <si>
+    <t>Marc Birtwistle</t>
+  </si>
+  <si>
+    <t>dsarmah@g.clemson.edu</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Clemson University</t>
+  </si>
+  <si>
+    <t>Guido Marcucci</t>
+  </si>
+  <si>
+    <t>Yi Zhang</t>
+  </si>
+  <si>
+    <t>Yizhang2@coh.org</t>
+  </si>
+  <si>
+    <t>626-873-6978</t>
+  </si>
+  <si>
+    <t>City of Hope BRC</t>
+  </si>
+  <si>
+    <t>Jianjun Chen</t>
+  </si>
+  <si>
+    <t>Meiling Chen</t>
+  </si>
+  <si>
+    <t>meichen@coh.org</t>
+  </si>
+  <si>
+    <t>Jeremy Chien</t>
+  </si>
+  <si>
+    <t>Caili Tong</t>
+  </si>
+  <si>
+    <t>caitong@ucdavis.edu</t>
+  </si>
+  <si>
+    <t>507-884-7324</t>
+  </si>
+  <si>
+    <t>UCDAVIS</t>
+  </si>
+  <si>
+    <t>Robert Damoiseaux</t>
+  </si>
+  <si>
+    <t>Michael Mellody</t>
+  </si>
+  <si>
+    <t>mmellody@g.ucla.edu</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Erika von Euw</t>
+  </si>
+  <si>
+    <t>818-825-2786</t>
+  </si>
+  <si>
+    <t>T-Cure Bioscience</t>
+  </si>
+  <si>
+    <t>James Figarola</t>
+  </si>
+  <si>
+    <t>Jyotsana Singhal</t>
+  </si>
+  <si>
+    <t>Catherine Fiorilla</t>
+  </si>
+  <si>
+    <t>Catherine.fiorilla@novaartis.com</t>
+  </si>
+  <si>
+    <t>Novartis</t>
+  </si>
+  <si>
+    <t>Thomas Graeber</t>
+  </si>
+  <si>
+    <t>Berklley Gryder</t>
+  </si>
+  <si>
+    <t>Sarah Kohrt</t>
+  </si>
+  <si>
+    <t>Sek88@case.edu</t>
+  </si>
+  <si>
+    <t>336 501 1039</t>
+  </si>
+  <si>
+    <t>Case Western</t>
+  </si>
+  <si>
+    <t>Chandra Khantwal</t>
+  </si>
+  <si>
+    <t>Mungenics</t>
+  </si>
+  <si>
+    <t>khantwalc@murigenics.com</t>
+  </si>
+  <si>
+    <t>Murigenics. Inc</t>
+  </si>
+  <si>
+    <t>Stan Lipkowitz</t>
+  </si>
+  <si>
+    <t>Yoshimi Greer</t>
+  </si>
+  <si>
+    <t>240-858-3275</t>
+  </si>
+  <si>
+    <t>Sabaz Nenarzadeg</t>
+  </si>
+  <si>
+    <t>Laura James-Allan</t>
+  </si>
+  <si>
+    <t>ljamesallan@mednet.ucla.edu</t>
+  </si>
+  <si>
+    <t>David Nathanson</t>
+  </si>
+  <si>
+    <t>Hong Andrew Tum</t>
+  </si>
+  <si>
+    <t>ttum@mednet.ucla.edu</t>
+  </si>
+  <si>
+    <t>Rick Newcombe</t>
+  </si>
+  <si>
+    <t>Kirstie Belanger</t>
+  </si>
+  <si>
+    <t>kirstie.belanger@novartixs.com</t>
+  </si>
+  <si>
+    <t>Noartis</t>
+  </si>
+  <si>
+    <t>Vu Ngo</t>
+  </si>
+  <si>
+    <t>Vivian Nguyen</t>
+  </si>
+  <si>
+    <t>Remi Adelalye-Ogal</t>
+  </si>
+  <si>
+    <t>C,Ph.D</t>
+  </si>
+  <si>
+    <t>716-887-2022</t>
+  </si>
+  <si>
+    <t>Frank Pajonk</t>
+  </si>
+  <si>
+    <t>Anjelica Cardenas</t>
+  </si>
+  <si>
+    <t>amcardenas@g.ula.edu</t>
+  </si>
+  <si>
+    <t>Chintan Parekh</t>
+  </si>
+  <si>
+    <t>Miguel Villa</t>
+  </si>
+  <si>
+    <t>626-232-7300</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Bichard Pienras</t>
+  </si>
+  <si>
+    <t>Diana Marquez-Garsan</t>
+  </si>
+  <si>
+    <t>Dmarquezemednet.ucla.edu</t>
+  </si>
+  <si>
+    <t>Agustin Vega</t>
+  </si>
+  <si>
+    <t>Antoni Ribas</t>
+  </si>
+  <si>
+    <t>AVegaCrespo@mednet.ucla.edu</t>
+  </si>
+  <si>
+    <t>714-469-6836</t>
+  </si>
+  <si>
+    <t>Amy Rowat</t>
+  </si>
+  <si>
+    <t>Bryanna Chavez</t>
+  </si>
+  <si>
+    <t>bryannachavezi@g.ucla.edu</t>
+  </si>
+  <si>
+    <t>David Shackelford</t>
+  </si>
+  <si>
+    <t>Morgan Brady</t>
+  </si>
+  <si>
+    <t>mrbrady@mednet.ucla.edu</t>
+  </si>
+  <si>
+    <t>Dennis Slamon</t>
+  </si>
+  <si>
+    <t>Ke Wei Gong</t>
+  </si>
+  <si>
+    <t>kewei@ucla.edu</t>
+  </si>
+  <si>
+    <t>The Soragni Lab</t>
+  </si>
+  <si>
+    <t>Bowen Wang</t>
+  </si>
+  <si>
+    <t>Sushil Jaiswai</t>
+  </si>
+  <si>
+    <t>Laura Elniski</t>
+  </si>
+  <si>
+    <t>Sushi.jaiswai@nih.gov</t>
+  </si>
+  <si>
+    <t>301 451 0255</t>
+  </si>
+  <si>
+    <t>Ryan Zhang</t>
+  </si>
+  <si>
+    <t>ryzhang@mednet,ycka,edu</t>
+  </si>
+  <si>
+    <t>David Ulmert</t>
+  </si>
+  <si>
+    <t>Claire Storey</t>
+  </si>
+  <si>
+    <t>CStorey@mednet.ucla.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCLA </t>
+  </si>
+  <si>
+    <t>Juli Unternaehrer</t>
+  </si>
+  <si>
+    <t>Tise Suzuki</t>
+  </si>
+  <si>
+    <t>909-558-7691</t>
+  </si>
+  <si>
+    <t>Loma Linda University</t>
+  </si>
+  <si>
+    <t>Erina Vlashi</t>
+  </si>
+  <si>
+    <t>Justine Bailleul</t>
+  </si>
+  <si>
+    <t>310-267-1212</t>
+  </si>
+  <si>
+    <t>Terrence Williams</t>
+  </si>
+  <si>
+    <t>Sindhu Nair</t>
+  </si>
+  <si>
+    <t>Scott Wood</t>
+  </si>
+  <si>
+    <t>Stephanie Curtis</t>
+  </si>
+  <si>
+    <t>Stephanie.curtis@bms.com</t>
+  </si>
+  <si>
+    <t>619-984-7799</t>
+  </si>
+  <si>
+    <t>Yong Wu</t>
+  </si>
+  <si>
+    <t>CDU</t>
+  </si>
+  <si>
+    <t>Charles R. Drew University of Medicine and Science</t>
+  </si>
+  <si>
+    <t>Jinfen Xiao</t>
+  </si>
+  <si>
+    <t>Corazon Gutierrez</t>
+  </si>
+  <si>
+    <t>Lili Yang</t>
+  </si>
+  <si>
+    <t>Yanruide Li</t>
+  </si>
+  <si>
+    <t>310-254-6086</t>
   </si>
   <si>
     <t>Nickname</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>test2</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Agarwal</t>
+  </si>
+  <si>
+    <t>Suprett.agarwal@nih.gov</t>
+  </si>
+  <si>
+    <t>240-760-7099</t>
+  </si>
+  <si>
+    <t>Besserer-Offroy</t>
+  </si>
+  <si>
+    <t>pjeanjean@mednet.ucla.edu</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>pcosgrove@coh.org</t>
+  </si>
+  <si>
+    <t>Birtwistle</t>
+  </si>
+  <si>
+    <t>Deepraj Sarmah</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Chien</t>
+  </si>
+  <si>
+    <t>Damoiseaux</t>
+  </si>
+  <si>
+    <t>Euw</t>
+  </si>
+  <si>
+    <t>Cecilia D’Alterio</t>
+  </si>
+  <si>
+    <t>Cecilia.dalterio@t-cure.com</t>
+  </si>
+  <si>
+    <t>Figarola</t>
+  </si>
+  <si>
+    <t>jsinghal@coh.org</t>
+  </si>
+  <si>
+    <t>626-218-4651</t>
+  </si>
+  <si>
+    <t>Fiorilla</t>
+  </si>
+  <si>
+    <t>617-871-7020</t>
+  </si>
+  <si>
+    <t>Graeber</t>
+  </si>
+  <si>
+    <t>Mark Goodman, Kim Paraiso</t>
+  </si>
+  <si>
+    <t>markgoodman@mednet.ucla.edu, kim.paraiso@gmail.com</t>
+  </si>
+  <si>
+    <t>310-206-7054, 310-809-3418</t>
+  </si>
+  <si>
+    <t>Gryder</t>
+  </si>
+  <si>
+    <t>Khantwal</t>
+  </si>
+  <si>
+    <t>707-561-8900</t>
+  </si>
+  <si>
+    <t>Lipkowitz</t>
+  </si>
+  <si>
+    <t>greery@mail.nih.gov</t>
+  </si>
+  <si>
+    <t>Memarzadeh</t>
+  </si>
+  <si>
+    <t>310-206-8918</t>
+  </si>
+  <si>
+    <t>Nathanson</t>
+  </si>
+  <si>
+    <t>310-825-6006</t>
+  </si>
+  <si>
+    <t>Newcombe</t>
+  </si>
+  <si>
+    <t>617-551-9437</t>
+  </si>
+  <si>
+    <t>Ngo</t>
+  </si>
+  <si>
+    <t>vinguyen@coh.org</t>
+  </si>
+  <si>
+    <t>714-696-4018</t>
+  </si>
+  <si>
+    <t>Ogal</t>
+  </si>
+  <si>
+    <t>remiadel@buffalo.edu</t>
+  </si>
+  <si>
+    <t>Pajonk</t>
+  </si>
+  <si>
+    <t>Parekh</t>
+  </si>
+  <si>
+    <t>hwu@chla.usc.edu</t>
+  </si>
+  <si>
+    <t>Pienaras</t>
+  </si>
+  <si>
+    <t>310-753-9212</t>
+  </si>
+  <si>
+    <t>Ribas</t>
+  </si>
+  <si>
+    <t>Rowat</t>
+  </si>
+  <si>
+    <t>Shackfield</t>
+  </si>
+  <si>
+    <t>818-919-2866</t>
+  </si>
+  <si>
+    <t>Slamon</t>
+  </si>
+  <si>
+    <t>310-206 1408</t>
+  </si>
+  <si>
+    <t>Soragni</t>
+  </si>
+  <si>
+    <t>SSartini@mednet.ucla.edu</t>
+  </si>
+  <si>
+    <t>Sushil</t>
+  </si>
+  <si>
+    <t>Tseng</t>
+  </si>
+  <si>
+    <t>626-236-7041</t>
+  </si>
+  <si>
+    <t>Ulmert</t>
+  </si>
+  <si>
+    <t>Unternaehrer</t>
+  </si>
+  <si>
+    <t>Vlashi</t>
+  </si>
+  <si>
+    <t>jbailleul@mednet.ucla.edu</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>snair@coh.org</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>Yongwu@cdrequ.edu</t>
+  </si>
+  <si>
+    <t>562-334-2567</t>
+  </si>
+  <si>
+    <t>Xiao</t>
+  </si>
+  <si>
+    <t>Jinfen.Xiao@cshs.org, Corazon.Gutierrez@cshs.org</t>
+  </si>
+  <si>
+    <t>310-423–7675</t>
+  </si>
+  <si>
+    <t>Cedars-Sinai </t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>shuaide@g.ucla.edu</t>
+  </si>
+  <si>
+    <t>626-246-2233</t>
+  </si>
+  <si>
+    <t>Dr. Tseng Hsian-Rong,  Dr. Zhu Yazheng</t>
+  </si>
+  <si>
+    <t>Marcucci</t>
+  </si>
+  <si>
+    <t>Puig-Saus</t>
+  </si>
+  <si>
+    <t>Jeffrey Chokry</t>
+  </si>
+  <si>
+    <t>Dr. Cristina Puig-Saus</t>
+  </si>
+  <si>
+    <t>Jchokry@mednet.ucla.edu</t>
+  </si>
+  <si>
+    <t>626-552-1192</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,15 +814,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -100,18 +1003,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,24 +1481,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -424,9 +1517,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -434,42 +1527,801 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>6262462233</v>
+      <c r="E2" t="s">
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>6262462233</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{FA464CA5-668F-4B6C-8C8D-8047E2201EB2}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{937FCD52-1986-4077-A5AC-DE62A8C7D48B}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{4DEC4DC4-CB88-4064-82CE-991021B9FDCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>